--- a/media/exported_item_json_data.xlsx
+++ b/media/exported_item_json_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH3"/>
+  <dimension ref="A1:CH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,11 +865,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NoneACCWCR001</t>
+          <t>some code</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -921,7 +921,9 @@
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
+      <c r="BA2" t="n">
+        <v>25</v>
+      </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -964,7 +966,7 @@
       </c>
       <c r="CH2" t="inlineStr">
         <is>
-          <t>WCR</t>
+          <t>WFR</t>
         </is>
       </c>
     </row>
@@ -973,11 +975,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abc0100002ACCWCR002</t>
+          <t>dasda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -990,9 +992,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>55</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -1031,7 +1031,9 @@
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
+      <c r="BA3" t="n">
+        <v>3</v>
+      </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1064,17 +1066,127 @@
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>central ssstore</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>PCC</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>WCR</t>
+          <t>REF</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sadasd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>central store</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>TEM</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>WFR</t>
         </is>
       </c>
     </row>
